--- a/测试文档/杨世忠/逆流器显示板V1.4功能测试报告.xlsx
+++ b/测试文档/杨世忠/逆流器显示板V1.4功能测试报告.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_place\My_project\iUpstream\测试文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_place\My_project\inverjet\测试文档\杨世忠\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2185A217-60FE-4025-BE39-8900F0E77341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CB20FB-7C86-4F77-B849-CBE07E16A63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3278" yWindow="3278" windowWidth="10800" windowHeight="9765" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="0" windowWidth="17123" windowHeight="13763" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表① 测试报告" sheetId="7" r:id="rId1"/>
@@ -1285,31 +1285,34 @@
     <t>设置状态可快速确认</t>
   </si>
   <si>
+    <t>规格书描述有误</t>
+  </si>
+  <si>
+    <t>规格书缺项补充建议</t>
+  </si>
+  <si>
+    <t>3秒内连按8次”流速键“，会进入屏幕自测程序。规格书2.4.11缺少此项描述。</t>
+  </si>
+  <si>
+    <t>规格书2.4.5”需重复2.4.4操作“描述有误，应为”需重复2.4.5操作“。</t>
+  </si>
+  <si>
+    <t>规格书2.4.6”如需修改请按2.4.5再次操作“描述有误，应为”如需修改请按2.4.6再次操作“。</t>
+  </si>
+  <si>
+    <t>”节点地址“实际参数设置范围为：0-255，与规格书2.4.11所述”1~254“不符。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
     <t>暂停状态下，修改流速和运行时间，连按两次开/关机键，逆流器会以暂停前的流速和更改后的运行时间直接运行，跳过3秒自动确认阶段。同时，快速确认会影响自由模式和定时模式的记忆功能。</t>
-  </si>
-  <si>
-    <t>规格书描述有误</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>规格书2.2”预设训练计划“显示范围应该为”P0~P5“。</t>
-  </si>
-  <si>
-    <t>规格书缺项补充建议</t>
-  </si>
-  <si>
-    <t>3秒内连按8次”流速键“，会进入屏幕自测程序。规格书2.4.11缺少此项描述。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>规格书2.3”流速挡位键“缺少”调整流速（预设训练模式设置时）“。</t>
-  </si>
-  <si>
-    <t>规格书2.4.5”需重复2.4.4操作“描述有误，应为”需重复2.4.5操作“。</t>
-  </si>
-  <si>
-    <t>规格书2.4.6”如需修改请按2.4.5再次操作“描述有误，应为”如需修改请按2.4.6再次操作“。</t>
-  </si>
-  <si>
-    <t>”节点地址“实际参数设置范围为：0-255，与规格书2.4.11所述”1~254“不符。</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -7823,8 +7826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.5"/>
@@ -7923,7 +7926,7 @@
         <v>342</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.5">
@@ -7966,8 +7969,8 @@
       <c r="B12" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C12" t="s">
-        <v>350</v>
+      <c r="C12" s="59" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.5">
@@ -7975,10 +7978,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C13" t="s">
-        <v>352</v>
+        <v>350</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.5">
@@ -7986,10 +7989,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.5">
@@ -7997,10 +8000,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C15" t="s">
-        <v>355</v>
+        <v>351</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.5">
@@ -8008,10 +8011,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C16" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.5">
@@ -8019,10 +8022,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C17" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -8035,24 +8038,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEEA25CC0A0AC24199CDC46C25B8B0BC" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3b47856d4cf355c0dacb39e1084d14f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6dc4bcd6-49db-4c07-9060-8acfc67cef9f" xmlns:ns3="fb0879af-3eba-417a-a55a-ffe6dcd6ca77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a845a615265fdb1f7b12cc65ac20ecbd" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8260,8 +8245,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{920DC3BD-3C4B-4C78-91FF-63EB10F70D2C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7118F064-9046-4DCB-A010-2D274D0FB549}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -8273,7 +8276,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7118F064-9046-4DCB-A010-2D274D0FB549}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{920DC3BD-3C4B-4C78-91FF-63EB10F70D2C}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>